--- a/data/trans_camb/P25_4-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P25_4-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -572,37 +584,67 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M2</t>
+          <t>M5/M2</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +680,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-1,59</t>
+          <t>-0,02</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-2,15</t>
+          <t>-2,1</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,82</t>
+          <t>-2,1</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-1,78</t>
+          <t>3,14</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-2,25</t>
+          <t>0,17</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-2,72</t>
+          <t>-1,45</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-1,67</t>
+          <t>-1,63</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-2,19</t>
+          <t>-1,33</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-0,85</t>
+          <t>0,09</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>0,85</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>-0,73</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-1,87</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>-1,72</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>1,69</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>0,5</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-5,29; 0,39</t>
+          <t>-3,41; 6,49</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-5,49; -0,66</t>
+          <t>-5,63; -0,68</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,66; 5,61</t>
+          <t>-5,99; -0,69</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-6,59; 1,32</t>
+          <t>0,91; 8,66</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-7,52; 0,0</t>
+          <t>-4,7; 5,11</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-7,63; -0,57</t>
+          <t>-4,96; 0,49</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-4,67; 0,04</t>
+          <t>-5,51; 0,17</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-4,77; -0,56</t>
+          <t>-4,74; 0,88</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-3,78; 1,78</t>
+          <t>-1,53; 2,62</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 4,25</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-2,8; 2,76</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-4,55; -0,53</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-3,89; -0,16</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>0,02; 4,4</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>-2,1; 3,21</t>
         </is>
       </c>
     </row>
@@ -738,7 +846,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-73,67%</t>
+          <t>-0,73%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -748,37 +856,67 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>37,9%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-65,41%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-82,79%</t>
+          <t>5,59%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-69,53%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-69,01%</t>
+          <t>-78,0%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-90,34%</t>
+          <t>-63,78%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-35,19%</t>
+          <t>11,99%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>-34,72%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>-88,99%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>-81,83%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>443,0%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>31,53%</t>
         </is>
       </c>
     </row>
@@ -811,27 +949,57 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
+          <t>-100,0; —</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H7" s="2" t="inlineStr">
+      <c r="I7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="I7" s="2" t="inlineStr">
+      <c r="J7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; 110,11</t>
-        </is>
-      </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 247,04</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; 663,51</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; 109,1</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -853,42 +1021,72 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,53</t>
+          <t>0,51</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>5,18</t>
+          <t>0,67</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,38</t>
+          <t>0,2</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,72</t>
+          <t>-4,3</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>3,8</t>
+          <t>1,39</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
+          <t>0,74</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>0,62</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>2,26</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-0,92</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
           <t>0,91</t>
         </is>
       </c>
-      <c r="J8" s="2" t="inlineStr">
+      <c r="N8" s="2" t="inlineStr">
         <is>
           <t>0,62</t>
         </is>
       </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>4,51</t>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>0,65</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>-2,66</t>
         </is>
       </c>
     </row>
@@ -901,47 +1099,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,63</t>
+          <t>0,0; 2,73</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,67</t>
+          <t>0,0; 2,52</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,77; 12,65</t>
+          <t>0,0; 3,11</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,41; 3,78</t>
+          <t>-1,42; 3,54</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,56</t>
+          <t>-10,2; -0,64</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,63; 7,56</t>
+          <t>0,41; 4,52</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,25; 2,31</t>
+          <t>0,0; 2,83</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,15; 1,73</t>
+          <t>0,0; 3,4</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,31; 8,01</t>
+          <t>-0,02; 5,95</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-4,72; 2,77</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>0,24; 2,17</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>0,15; 1,96</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 2,64</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>-0,38; 3,24</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>-6,51; 0,01</t>
         </is>
       </c>
     </row>
@@ -969,32 +1197,62 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>30,36%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>-83,03%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
+      <c r="I10" s="2" t="inlineStr">
         <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="H10" s="2" t="inlineStr">
+      <c r="J10" s="2" t="inlineStr">
         <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="I10" s="2" t="inlineStr">
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>364,43%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>-24,15%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
         <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="J10" s="2" t="inlineStr">
+      <c r="N10" s="2" t="inlineStr">
         <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="K10" s="2" t="inlineStr">
+      <c r="O10" s="2" t="inlineStr">
         <is>
           <t>inf%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>184,82%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>-58,99%</t>
         </is>
       </c>
     </row>
@@ -1050,6 +1308,36 @@
           <t>—; —</t>
         </is>
       </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-81,1; 219,88</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>-66,66; —</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>-88,26; 21,29</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -1064,47 +1352,77 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-0,4</t>
+          <t>-0,5</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,21</t>
+          <t>0,11</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>1,23</t>
+          <t>1,08</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,87</t>
+          <t>-1,15</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>1,39</t>
+          <t>-1,19</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,82</t>
+          <t>0,91</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,25</t>
+          <t>1,46</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,82</t>
+          <t>1,97</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>1,03</t>
+          <t>0,61</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>1,74</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>0,23</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>0,8</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>1,54</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>-0,35</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>0,2</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1435,77 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,93; 0,48</t>
+          <t>-2,37; 0,3</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,12; 1,62</t>
+          <t>-1,38; 1,52</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,57; 3,92</t>
+          <t>-0,81; 3,41</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,78; 2,78</t>
+          <t>-3,3; 1,28</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-0,42; 3,19</t>
+          <t>-3,65; 1,03</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-0,97; 3,15</t>
+          <t>-0,79; 2,62</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,83; 1,36</t>
+          <t>-0,42; 3,25</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-0,31; 2,14</t>
+          <t>-0,3; 7,27</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-0,17; 2,85</t>
+          <t>-4,56; 3,76</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-1,28; 5,21</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-0,87; 1,28</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-0,31; 2,04</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>0,12; 4,54</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>-2,92; 1,56</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>-1,74; 2,04</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1518,77 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-58,36%</t>
+          <t>-62,91%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>30,76%</t>
+          <t>14,01%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>179,46%</t>
+          <t>137,68%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>90,47%</t>
+          <t>-61,35%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>144,19%</t>
+          <t>-62,22%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>85,32%</t>
+          <t>96,28%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>30,92%</t>
+          <t>154,8%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>99,04%</t>
+          <t>209,04%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>124,78%</t>
+          <t>21,02%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>97,59%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>26,04%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>92,43%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>177,73%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>-14,74%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>10,7%</t>
         </is>
       </c>
     </row>
@@ -1233,37 +1611,67 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
+          <t>-77,03; —</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-64,27; —</t>
-        </is>
-      </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-45,71; 971,64</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>-58,0; 1028,56</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-62,85; 486,95</t>
+          <t>-40,82; 1195,7</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-37,13; 545,96</t>
+          <t>-61,3; —</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-39,01; 951,49</t>
+          <t>-89,89; 254,63</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-65,42; 642,77</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-64,24; 363,92</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-32,32; 514,62</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-22,57; 1071,63</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>-76,24; 115,82</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>-64,58; 203,04</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1688,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>1,21</t>
+          <t>1,14</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,14</t>
+          <t>0,08</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
+          <t>0,66</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
           <t>0,7</t>
         </is>
       </c>
-      <c r="F16" s="2" t="inlineStr">
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>0,73</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>-0,51</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
         <is>
           <t>-0,46</t>
         </is>
       </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>-0,4</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>1,9</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>0,35</t>
-        </is>
-      </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-0,15</t>
+          <t>-0,17</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>1,23</t>
+          <t>2,99</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>1,03</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>0,3</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>-0,2</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>0,23</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>1,82</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>0,9</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1771,77 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,03; 3,95</t>
+          <t>-1,34; 3,49</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,89; 2,03</t>
+          <t>-2,21; 2,18</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,53; 3,47</t>
+          <t>-1,92; 3,08</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,79; 1,86</t>
+          <t>-2,35; 3,91</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,88; 1,68</t>
+          <t>-2,35; 3,88</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,02; 5,19</t>
+          <t>-2,89; 1,71</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-1,29; 1,8</t>
+          <t>-2,87; 1,69</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,63; 1,39</t>
+          <t>-2,59; 2,35</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-0,72; 2,98</t>
+          <t>-0,15; 6,35</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-2,48; 4,94</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-1,26; 1,85</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>-1,78; 1,36</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>-1,41; 1,94</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>-0,21; 4,12</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>-1,61; 3,41</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1854,77 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>77,84%</t>
+          <t>69,97%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>8,71%</t>
+          <t>4,94%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>44,83%</t>
+          <t>40,5%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-20,04%</t>
+          <t>30,64%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-17,42%</t>
+          <t>32,49%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>82,22%</t>
+          <t>-21,02%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>18,04%</t>
+          <t>-19,22%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-7,47%</t>
+          <t>-7,13%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>63,31%</t>
+          <t>133,3%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>24,55%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>14,54%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>-9,86%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>11,44%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>80,07%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>28,36%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1937,77 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-52,14; 729,73</t>
+          <t>-55,36; 690,59</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-76,05; 453,28</t>
+          <t>-75,62; 524,58</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-74,74; 577,8</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-81,09; 219,97</t>
+          <t>-77,43; 334,51</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-79,35; 147,4</t>
+          <t>-75,55; 443,53</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-40,23; 382,3</t>
+          <t>-76,91; 182,06</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-45,58; 164,62</t>
+          <t>-75,84; 179,5</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-59,24; 150,71</t>
+          <t>-73,76; 210,68</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-28,29; 242,4</t>
+          <t>-13,38; 577,24</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>-46,34; 240,28</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-48,06; 151,73</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>-61,16; 127,74</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>-51,17; 171,59</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>-12,33; 279,94</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>-38,49; 166,59</t>
         </is>
       </c>
     </row>
@@ -1496,47 +2024,77 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>1,99</t>
+          <t>2,07</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>5,62</t>
+          <t>5,49</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>5,91</t>
+          <t>3,31</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,67</t>
+          <t>3,07</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,86</t>
+          <t>0,34</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>1,92</t>
+          <t>0,87</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>1,33</t>
+          <t>0,94</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>3,2</t>
+          <t>0,32</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>3,84</t>
+          <t>1,77</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>0,15</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>1,47</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>3,17</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>1,79</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>2,41</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>0,29</t>
         </is>
       </c>
     </row>
@@ -1549,47 +2107,77 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-2,01; 5,96</t>
+          <t>-2,22; 6,26</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0,72; 11,79</t>
+          <t>1,17; 11,93</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0,77; 11,55</t>
+          <t>-1,13; 9,94</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-3,57; 4,67</t>
+          <t>-3,8; 9,08</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-3,38; 4,41</t>
+          <t>-6,54; 6,44</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-2,36; 6,3</t>
+          <t>-3,22; 4,44</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-1,44; 4,23</t>
+          <t>-3,56; 4,87</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>0,23; 6,91</t>
+          <t>-3,98; 4,47</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>0,36; 7,24</t>
+          <t>-3,23; 6,43</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>-4,26; 5,59</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>-1,54; 4,25</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>0,06; 6,71</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>-1,46; 5,53</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>-1,33; 6,47</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>-3,33; 4,34</t>
         </is>
       </c>
     </row>
@@ -1602,47 +2190,77 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>48,34%</t>
+          <t>51,85%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>136,27%</t>
+          <t>137,51%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>143,5%</t>
+          <t>82,98%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>14,69%</t>
+          <t>42,05%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>18,87%</t>
+          <t>3,42%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>42,07%</t>
+          <t>19,11%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>30,58%</t>
+          <t>20,71%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>73,59%</t>
+          <t>7,05%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>88,33%</t>
+          <t>36,53%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>2,37%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>34,36%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>74,27%</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>41,89%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>39,85%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>3,53%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +2273,77 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-37,31; 275,6</t>
+          <t>-37,34; 291,36</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-5,69; 510,34</t>
+          <t>3,08; 474,72</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>4,15; 522,76</t>
+          <t>-29,58; 410,52</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-52,65; 190,5</t>
+          <t>-39,8; 190,52</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-52,1; 164,45</t>
+          <t>-48,46; 89,46</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-38,29; 246,54</t>
+          <t>-48,6; 168,29</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-26,98; 145,58</t>
+          <t>-53,83; 196,02</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-0,03; 234,99</t>
+          <t>-64,25; 161,4</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>3,35; 243,47</t>
+          <t>-50,38; 235,04</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>-53,95; 154,48</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>-26,82; 145,48</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>-2,56; 222,26</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>-29,71; 181,77</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>-19,01; 157,26</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>-34,82; 77,64</t>
         </is>
       </c>
     </row>
@@ -1712,47 +2360,77 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>1,56</t>
+          <t>0,71</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,28</t>
+          <t>-0,57</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-0,29</t>
+          <t>-4,58</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>-0,34</t>
+          <t>-0,22</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>2,1</t>
+          <t>-3,77</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>-4,11</t>
+          <t>-1,4</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>0,48</t>
+          <t>1,97</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>1,32</t>
+          <t>-1,98</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>-2,53</t>
+          <t>3,97</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>7,33</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>-0,48</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>0,88</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>-3,09</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>2,16</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>2,6</t>
         </is>
       </c>
     </row>
@@ -1765,47 +2443,77 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-5,82; 9,48</t>
+          <t>-7,02; 8,31</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-7,12; 7,76</t>
+          <t>-7,81; 6,8</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-7,77; 9,22</t>
+          <t>-12,02; 2,59</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-5,18; 4,21</t>
+          <t>-7,51; 5,98</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-3,26; 7,46</t>
+          <t>-12,25; 3,69</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-8,76; -0,15</t>
+          <t>-7,8; 3,43</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-4,01; 4,7</t>
+          <t>-3,85; 9,7</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-3,02; 5,98</t>
+          <t>-8,39; 3,2</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-6,49; 1,72</t>
+          <t>-1,82; 10,35</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>2,54; 13,49</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>-5,12; 4,31</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>-4,3; 5,91</t>
+        </is>
+      </c>
+      <c r="O25" s="2" t="inlineStr">
+        <is>
+          <t>-7,54; 1,4</t>
+        </is>
+      </c>
+      <c r="P25" s="2" t="inlineStr">
+        <is>
+          <t>-2,21; 6,61</t>
+        </is>
+      </c>
+      <c r="Q25" s="2" t="inlineStr">
+        <is>
+          <t>-2,04; 7,18</t>
         </is>
       </c>
     </row>
@@ -1818,47 +2526,77 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>12,34%</t>
+          <t>5,27%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>2,2%</t>
+          <t>-4,25%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-2,27%</t>
+          <t>-34,19%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>-5,74%</t>
+          <t>-2,48%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>35,18%</t>
+          <t>-30,48%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>-68,83%</t>
+          <t>-19,43%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>5,37%</t>
+          <t>27,32%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>14,84%</t>
+          <t>-27,48%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>-28,48%</t>
+          <t>76,08%</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>393,64%</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>-4,91%</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>8,93%</t>
+        </is>
+      </c>
+      <c r="O26" s="2" t="inlineStr">
+        <is>
+          <t>-31,27%</t>
+        </is>
+      </c>
+      <c r="P26" s="2" t="inlineStr">
+        <is>
+          <t>31,78%</t>
+        </is>
+      </c>
+      <c r="Q26" s="2" t="inlineStr">
+        <is>
+          <t>41,04%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +2609,77 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-36,75; 109,37</t>
+          <t>-41,98; 89,64</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-42,8; 85,62</t>
+          <t>-48,05; 70,66</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-51,88; 100,35</t>
+          <t>-67,11; 29,35</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-62,1; 121,43</t>
+          <t>-61,03; 112,18</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-43,12; 204,02</t>
+          <t>-72,39; 50,98</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 21,84</t>
+          <t>-72,5; 81,19</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-35,72; 69,63</t>
+          <t>-44,52; 203,29</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-29,61; 85,34</t>
+          <t>-79,14; 75,95</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-60,78; 27,62</t>
+          <t>-29,75; 359,97</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>29,26; 1955,7</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>-41,88; 58,36</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>-35,49; 84,15</t>
+        </is>
+      </c>
+      <c r="O27" s="2" t="inlineStr">
+        <is>
+          <t>-61,87; 21,26</t>
+        </is>
+      </c>
+      <c r="P27" s="2" t="inlineStr">
+        <is>
+          <t>-27,04; 139,41</t>
+        </is>
+      </c>
+      <c r="Q27" s="2" t="inlineStr">
+        <is>
+          <t>-25,07; 175,85</t>
         </is>
       </c>
     </row>
@@ -1928,47 +2696,77 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>0,47</t>
+          <t>0,57</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,63</t>
+          <t>0,46</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>2,15</t>
+          <t>-0,04</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,04</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0,49</t>
+          <t>-1,33</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>0,26</t>
+          <t>-0,11</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>0,25</t>
+          <t>0,55</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>0,56</t>
+          <t>-0,05</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>1,21</t>
+          <t>2,12</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>1,99</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>0,22</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>0,51</t>
+        </is>
+      </c>
+      <c r="O28" s="2" t="inlineStr">
+        <is>
+          <t>-0,05</t>
+        </is>
+      </c>
+      <c r="P28" s="2" t="inlineStr">
+        <is>
+          <t>1,44</t>
+        </is>
+      </c>
+      <c r="Q28" s="2" t="inlineStr">
+        <is>
+          <t>0,34</t>
         </is>
       </c>
     </row>
@@ -1981,47 +2779,77 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-1,14; 2,03</t>
+          <t>-1,18; 2,43</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-0,81; 2,32</t>
+          <t>-0,98; 2,06</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>0,15; 4,07</t>
+          <t>-1,46; 1,82</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-1,26; 1,41</t>
+          <t>-0,97; 2,44</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-0,9; 1,86</t>
+          <t>-3,38; 0,65</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-1,31; 1,41</t>
+          <t>-1,74; 1,26</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-0,75; 1,25</t>
+          <t>-1,14; 2,21</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-0,47; 1,69</t>
+          <t>-1,54; 1,59</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-0,01; 2,3</t>
+          <t>0,37; 3,81</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>0,34; 3,61</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>-0,87; 1,38</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>-0,65; 1,64</t>
+        </is>
+      </c>
+      <c r="O29" s="2" t="inlineStr">
+        <is>
+          <t>-1,19; 1,09</t>
+        </is>
+      </c>
+      <c r="P29" s="2" t="inlineStr">
+        <is>
+          <t>0,2; 2,68</t>
+        </is>
+      </c>
+      <c r="Q29" s="2" t="inlineStr">
+        <is>
+          <t>-1,02; 1,62</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2862,77 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>14,12%</t>
+          <t>16,34%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>18,97%</t>
+          <t>13,37%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>64,46%</t>
+          <t>-1,22%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>1,34%</t>
+          <t>21,85%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>17,49%</t>
+          <t>-24,16%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>9,09%</t>
+          <t>-3,59%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>8,12%</t>
+          <t>18,56%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>18,25%</t>
+          <t>-1,81%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>39,35%</t>
+          <t>72,47%</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>64,89%</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>6,87%</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>15,82%</t>
+        </is>
+      </c>
+      <c r="O30" s="2" t="inlineStr">
+        <is>
+          <t>-1,51%</t>
+        </is>
+      </c>
+      <c r="P30" s="2" t="inlineStr">
+        <is>
+          <t>45,53%</t>
+        </is>
+      </c>
+      <c r="Q30" s="2" t="inlineStr">
+        <is>
+          <t>7,84%</t>
         </is>
       </c>
     </row>
@@ -2087,63 +2945,100 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-25,75; 78,83</t>
+          <t>-29,62; 91,71</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-20,54; 88,71</t>
+          <t>-24,05; 76,18</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>1,12; 149,75</t>
+          <t>-36,57; 67,56</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-35,94; 69,33</t>
+          <t>-23,95; 92,12</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-26,21; 86,03</t>
+          <t>-51,26; 15,8</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-36,45; 66,62</t>
+          <t>-43,65; 56,95</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-21,17; 49,15</t>
+          <t>-30,63; 101,64</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-12,45; 63,59</t>
+          <t>-43,52; 71,4</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>0,12; 89,23</t>
+          <t>8,85; 174,67</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>8,23; 142,81</t>
+        </is>
+      </c>
+      <c r="M31" s="2" t="inlineStr">
+        <is>
+          <t>-24,37; 52,45</t>
+        </is>
+      </c>
+      <c r="N31" s="2" t="inlineStr">
+        <is>
+          <t>-18,01; 61,27</t>
+        </is>
+      </c>
+      <c r="O31" s="2" t="inlineStr">
+        <is>
+          <t>-32,04; 39,8</t>
+        </is>
+      </c>
+      <c r="P31" s="2" t="inlineStr">
+        <is>
+          <t>5,09; 103,4</t>
+        </is>
+      </c>
+      <c r="Q31" s="2" t="inlineStr">
+        <is>
+          <t>-21,67; 44,68</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="C1:G1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
